--- a/BAfc_claude_code/figures/figure_3/figure_3_data.xlsx
+++ b/BAfc_claude_code/figures/figure_3/figure_3_data.xlsx
@@ -2317,7 +2317,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.54720000000000002</v>
+        <v>0.55189999999999995</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>

--- a/BAfc_claude_code/figures/figure_3/figure_3_data.xlsx
+++ b/BAfc_claude_code/figures/figure_3/figure_3_data.xlsx
@@ -6,9 +6,9 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PanelsCF_PeakFR_RespLen" sheetId="1" r:id="rId2"/>
-    <sheet name="PanelG_PieCharts" sheetId="2" r:id="rId4"/>
-    <sheet name="PanelH_RegionComparison" sheetId="3" r:id="rId5"/>
+    <sheet name="PanelsEF_PeakFR_RespLen" sheetId="1" r:id="rId2"/>
+    <sheet name="PanelH_PieCharts" sheetId="2" r:id="rId4"/>
+    <sheet name="PanelG_RegionComparison" sheetId="3" r:id="rId5"/>
     <sheet name="RawData_PeakFR_RespLen" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="530" uniqueCount="102">
   <si>
-    <t>PANELS C &amp; F: Peak FR and Response Length Bar Charts</t>
+    <t>PANELS E &amp; F: Peak FR and Response Length Bar Charts</t>
   </si>
   <si>
     <t>=== LA ===</t>
@@ -123,7 +123,7 @@
     <t>Resp Length SD (ms)</t>
   </si>
   <si>
-    <t>PANEL G: Pie Charts - Cluster Proportions</t>
+    <t>PANEL H: Pie Charts - Cluster Proportions</t>
   </si>
   <si>
     <t>Region</t>
@@ -168,7 +168,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>PANEL H: LA vs AStria Comparison</t>
+    <t>PANEL G: LA vs AStria Comparison</t>
   </si>
   <si>
     <t>=== CS trials ===</t>
@@ -201,7 +201,7 @@
     <t>RAW DATA: Individual Neuron Peak FR and Response Length Values</t>
   </si>
   <si>
-    <t>These are the individual data points used to calculate means and SEMs in Panels C &amp; F</t>
+    <t>These are the individual data points used to calculate means and SEMs in Panels E &amp; F</t>
   </si>
   <si>
     <t>========== LA ==========</t>
@@ -373,7 +373,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="true"/>
+    <col min="1" max="1" width="48.85546875" customWidth="true"/>
     <col min="2" max="2" width="18.5703125" customWidth="true"/>
     <col min="3" max="3" width="17.28515625" customWidth="true"/>
     <col min="4" max="4" width="20.28515625" customWidth="true"/>
@@ -2282,7 +2282,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.55520000000000003</v>
+        <v>0.54359999999999997</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -2635,7 +2635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" customWidth="true"/>
+    <col min="1" max="1" width="76.140625" customWidth="true"/>
     <col min="2" max="2" width="12.28515625" customWidth="true"/>
     <col min="3" max="3" width="11.140625" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>

--- a/BAfc_claude_code/figures/figure_3/figure_3_data.xlsx
+++ b/BAfc_claude_code/figures/figure_3/figure_3_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="530" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="551" uniqueCount="102">
   <si>
     <t>PANELS E &amp; F: Peak FR and Response Length Bar Charts</t>
   </si>
@@ -168,13 +168,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>PANEL G: LA vs AStria Comparison</t>
+    <t>PANEL G: LA vs AStria Comparison - Peak FR and Response Length</t>
   </si>
   <si>
     <t>=== CS trials ===</t>
-  </si>
-  <si>
-    <t>Statistical Test:</t>
   </si>
   <si>
     <t>Wilcoxon rank-sum (LA vs AStria):</t>
@@ -186,13 +183,16 @@
     <t>=== CS+US trials ===</t>
   </si>
   <si>
-    <t>Mean (Hz)</t>
+    <t>Peak FR Mean (Hz)</t>
   </si>
   <si>
-    <t>SEM (Hz)</t>
+    <t>Peak FR</t>
   </si>
   <si>
-    <t>Median (Hz)</t>
+    <t>Peak FR SEM (Hz)</t>
+  </si>
+  <si>
+    <t>Peak FR Median (Hz)</t>
   </si>
   <si>
     <t>n neurons</t>
@@ -373,16 +373,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="true"/>
-    <col min="2" max="2" width="18.5703125" customWidth="true"/>
-    <col min="3" max="3" width="17.28515625" customWidth="true"/>
-    <col min="4" max="4" width="20.28515625" customWidth="true"/>
-    <col min="5" max="5" width="15.85546875" customWidth="true"/>
+    <col min="1" max="1" width="45.5546875" customWidth="true"/>
+    <col min="2" max="2" width="17.109375" customWidth="true"/>
+    <col min="3" max="3" width="16" customWidth="true"/>
+    <col min="4" max="4" width="18.5546875" customWidth="true"/>
+    <col min="5" max="5" width="14.5546875" customWidth="true"/>
     <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="21.7109375" customWidth="true"/>
-    <col min="8" max="8" width="20.42578125" customWidth="true"/>
-    <col min="9" max="9" width="23.42578125" customWidth="true"/>
-    <col min="10" max="10" width="19" customWidth="true"/>
+    <col min="7" max="7" width="19.77734375" customWidth="true"/>
+    <col min="8" max="8" width="18.6640625" customWidth="true"/>
+    <col min="9" max="9" width="21.21875" customWidth="true"/>
+    <col min="10" max="10" width="17.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2131,14 +2131,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="9.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="8.85546875" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="5.5703125" customWidth="true"/>
+    <col min="1" max="1" width="34.33203125" customWidth="true"/>
+    <col min="2" max="2" width="11.5546875" customWidth="true"/>
+    <col min="3" max="3" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="8.6640625" customWidth="true"/>
+    <col min="5" max="5" width="11.5546875" customWidth="true"/>
+    <col min="6" max="6" width="7.77734375" customWidth="true"/>
+    <col min="7" max="7" width="11.5546875" customWidth="true"/>
+    <col min="8" max="8" width="5.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2282,7 +2282,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.54359999999999997</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -2313,17 +2313,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
-    <col min="5" max="5" width="10" customWidth="true"/>
+    <col min="1" max="1" width="54" customWidth="true"/>
+    <col min="2" max="2" width="16" customWidth="true"/>
+    <col min="3" max="3" width="14.88671875" customWidth="true"/>
+    <col min="4" max="4" width="17.44140625" customWidth="true"/>
+    <col min="5" max="5" width="9" customWidth="true"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col min="7" max="7" width="19.77734375" customWidth="true"/>
+    <col min="8" max="8" width="18.6640625" customWidth="true"/>
+    <col min="9" max="9" width="21.21875" customWidth="true"/>
+    <col min="10" max="10" width="17.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2334,6 +2339,11 @@
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
     </row>
     <row r="2">
       <c r="A2"/>
@@ -2341,6 +2351,11 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2350,13 +2365,18 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -2366,6 +2386,19 @@
       </c>
       <c r="E4" t="s">
         <v>59</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -2384,6 +2417,19 @@
       <c r="E5">
         <v>103</v>
       </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>231.51456310679612</v>
+      </c>
+      <c r="H5">
+        <v>21.147388572080366</v>
+      </c>
+      <c r="I5">
+        <v>147.00000000000003</v>
+      </c>
+      <c r="J5">
+        <v>214.622553502914</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2400,6 +2446,19 @@
       </c>
       <c r="E6">
         <v>46</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>202.45652173913044</v>
+      </c>
+      <c r="H6">
+        <v>25.45223254582784</v>
+      </c>
+      <c r="I6">
+        <v>137.5</v>
+      </c>
+      <c r="J6">
+        <v>172.62543993304493</v>
       </c>
     </row>
     <row r="7">
@@ -2408,19 +2467,33 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>0.76263729316975648</v>
@@ -2430,6 +2503,15 @@
       </c>
       <c r="D9"/>
       <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9">
+        <v>0.65562797738696788</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
     </row>
     <row r="10">
       <c r="A10"/>
@@ -2437,22 +2519,32 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -2462,6 +2554,19 @@
       </c>
       <c r="E12" t="s">
         <v>59</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2480,6 +2585,19 @@
       <c r="E13">
         <v>122</v>
       </c>
+      <c r="F13"/>
+      <c r="G13">
+        <v>225.58196721311475</v>
+      </c>
+      <c r="H13">
+        <v>18.815729626198436</v>
+      </c>
+      <c r="I13">
+        <v>143.00000000000003</v>
+      </c>
+      <c r="J13">
+        <v>207.82652652314766</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2496,6 +2614,19 @@
       </c>
       <c r="E14">
         <v>53</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14">
+        <v>279.09433962264148</v>
+      </c>
+      <c r="H14">
+        <v>31.99522896389497</v>
+      </c>
+      <c r="I14">
+        <v>188</v>
+      </c>
+      <c r="J14">
+        <v>232.92878278984622</v>
       </c>
     </row>
     <row r="15">
@@ -2504,19 +2635,33 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16"/>
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0.93400658457983676</v>
@@ -2526,6 +2671,15 @@
       </c>
       <c r="D17"/>
       <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17">
+        <v>0.15334037083770505</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18">
       <c r="A18"/>
@@ -2533,22 +2687,32 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -2558,6 +2722,19 @@
       </c>
       <c r="E20" t="s">
         <v>59</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2576,6 +2753,19 @@
       <c r="E21">
         <v>156</v>
       </c>
+      <c r="F21"/>
+      <c r="G21">
+        <v>212.52564102564102</v>
+      </c>
+      <c r="H21">
+        <v>19.461848850713089</v>
+      </c>
+      <c r="I21">
+        <v>124</v>
+      </c>
+      <c r="J21">
+        <v>243.07841423567083</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -2592,6 +2782,19 @@
       </c>
       <c r="E22">
         <v>65</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22">
+        <v>242.8153846153846</v>
+      </c>
+      <c r="H22">
+        <v>30.406302265412371</v>
+      </c>
+      <c r="I22">
+        <v>146</v>
+      </c>
+      <c r="J22">
+        <v>245.14344603642863</v>
       </c>
     </row>
     <row r="23">
@@ -2600,19 +2803,33 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24"/>
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>0.67180399641514399</v>
@@ -2622,6 +2839,15 @@
       </c>
       <c r="D25"/>
       <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25">
+        <v>0.22141896812259326</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2635,16 +2861,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="76.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.28515625" customWidth="true"/>
-    <col min="3" max="3" width="11.140625" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.85546875" customWidth="true"/>
-    <col min="6" max="6" width="19" customWidth="true"/>
+    <col min="1" max="1" width="70" customWidth="true"/>
+    <col min="2" max="2" width="11.109375" customWidth="true"/>
+    <col min="3" max="3" width="10.88671875" customWidth="true"/>
+    <col min="4" max="4" width="14.44140625" customWidth="true"/>
+    <col min="5" max="5" width="14.6640625" customWidth="true"/>
+    <col min="6" max="6" width="17.6640625" customWidth="true"/>
     <col min="7" max="7" width="9.140625"/>
-    <col min="8" max="8" width="18.85546875" customWidth="true"/>
-    <col min="9" max="9" width="19" customWidth="true"/>
-    <col min="10" max="10" width="22.140625" customWidth="true"/>
+    <col min="8" max="8" width="17.109375" customWidth="true"/>
+    <col min="9" max="9" width="17.33203125" customWidth="true"/>
+    <col min="10" max="10" width="20.33203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
